--- a/Documents/Database_Schema_project.xlsx
+++ b/Documents/Database_Schema_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rental Dress management\Rental-Dress-Management-System\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BBFE46-18CE-4FF5-ACEA-A2E778932E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B175C2-16F3-4F1C-93E4-5CF32FAB390B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89E86088-0CD6-4372-A25C-5253C6C980CA}"/>
   </bookViews>
@@ -270,10 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +596,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,19 +608,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -674,19 +674,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -703,7 +703,7 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -740,16 +740,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -836,16 +836,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -923,16 +923,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -994,16 +994,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1041,16 +1041,16 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -1085,16 +1085,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1135,16 +1135,16 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1200,16 +1200,16 @@
       <c r="I72" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1261,16 +1261,16 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -1309,17 +1309,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A81:H81"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Database_Schema_project.xlsx
+++ b/Documents/Database_Schema_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t xml:space="preserve">Customer_information_tbl</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">int</t>
   </si>
   <si>
+    <t xml:space="preserve">primary key</t>
+  </si>
+  <si>
     <t xml:space="preserve">first_name</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t xml:space="preserve">email id</t>
   </si>
   <si>
-    <t xml:space="preserve">primary key</t>
-  </si>
-  <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">apparel_id</t>
   </si>
   <si>
-    <t xml:space="preserve">(foreign key)</t>
+    <t xml:space="preserve">foreign key references Apparels_tbl(apparelsId)</t>
   </si>
   <si>
     <t xml:space="preserve">Apparels_tbl</t>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imageID</t>
   </si>
   <si>
     <t xml:space="preserve">rent_amount</t>
@@ -262,18 +259,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -341,24 +338,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -366,15 +363,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -458,18 +447,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,56 +476,55 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>14</v>
@@ -589,39 +577,39 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>14</v>
@@ -666,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -686,21 +674,21 @@
       <c r="B24" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -710,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>25</v>
@@ -721,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,7 +717,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,31 +725,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>2</v>
@@ -769,38 +757,41 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -809,39 +800,32 @@
       <c r="B39" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="B41" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,324 +833,319 @@
         <v>38</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="B48" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>2</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="B70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" s="11"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="0" t="s">
+      <c r="I75" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="B78" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" s="11"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,7 +1153,7 @@
         <v>62</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1161,7 @@
         <v>63</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,35 +1169,28 @@
         <v>64</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
